--- a/model/Outputs/8. Fixed RE/No PV/Output Files/10/Output_10_44.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/10/Output_10_44.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4743829.962256147</v>
+        <v>4743834.022398002</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99102.66887589563</v>
+        <v>18093321.786693</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99102.66887589563</v>
+        <v>18093321.786693</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13596.00278847177</v>
+        <v>1498946.723268717</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13596.00278847177</v>
+        <v>1498946.723268717</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>996683599.2824724</v>
+        <v>39329224.22035004</v>
       </c>
     </row>
   </sheetData>
@@ -24268,16 +24268,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>61.22129654861067</v>
+        <v>62.22129654861067</v>
       </c>
       <c r="V23" t="n">
-        <v>41.85102416682389</v>
+        <v>42.85102416682389</v>
       </c>
       <c r="W23" t="n">
-        <v>50.37347598094755</v>
+        <v>51.37347598094755</v>
       </c>
       <c r="X23" t="n">
-        <v>4.281833460667713</v>
+        <v>5.281833460667713</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>52.44556407901496</v>
+        <v>53.44556407901496</v>
       </c>
       <c r="P25" t="n">
-        <v>99.44789732827746</v>
+        <v>100.4478973282775</v>
       </c>
       <c r="Q25" t="n">
-        <v>137.839266425598</v>
+        <v>138.839266425598</v>
       </c>
       <c r="R25" t="n">
-        <v>138.6021279811511</v>
+        <v>139.6021279811511</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7098.947236703119</v>
+        <v>847938.5734809311</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13876.90287754525</v>
+        <v>1646621.723763456</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20654.85851838737</v>
+        <v>2445304.874045983</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27600.0176850608</v>
+        <v>3222691.938163013</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34440.16144547356</v>
+        <v>4013307.001271302</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41183.10143506624</v>
+        <v>4816789.866152463</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>47926.04142465894</v>
+        <v>5620272.73103362</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54666.90141425162</v>
+        <v>6423755.595914778</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>61612.06058092506</v>
+        <v>7201142.660031806</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>68373.63622176717</v>
+        <v>8002073.510314329</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>75036.98166837671</v>
+        <v>8815179.609249132</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81700.32711498626</v>
+        <v>9628285.708183944</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>88363.6725615958</v>
+        <v>10441391.80711876</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>95308.83172826924</v>
+        <v>11218778.87123579</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>102683.2084694668</v>
+        <v>11938455.41839134</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1351617.638939659</v>
+        <v>1351617.63893966</v>
       </c>
       <c r="C2" t="n">
-        <v>1351617.638939659</v>
+        <v>1351617.63893966</v>
       </c>
       <c r="D2" t="n">
-        <v>1351617.638939659</v>
+        <v>1351617.63893966</v>
       </c>
       <c r="E2" t="n">
-        <v>1315578.108505742</v>
+        <v>1315578.108505744</v>
       </c>
       <c r="F2" t="n">
         <v>1337963.952952487</v>
       </c>
       <c r="G2" t="n">
-        <v>1359740.232875812</v>
+        <v>1359740.232875813</v>
       </c>
       <c r="H2" t="n">
-        <v>1359740.232875812</v>
+        <v>1359740.232875813</v>
       </c>
       <c r="I2" t="n">
-        <v>1360196.072875812</v>
+        <v>1359740.232875813</v>
       </c>
       <c r="J2" t="n">
         <v>1315578.108505743</v>
       </c>
       <c r="K2" t="n">
-        <v>1355421.438939659</v>
+        <v>1355421.43893966</v>
       </c>
       <c r="L2" t="n">
-        <v>1376025.705889675</v>
+        <v>1376025.705889676</v>
       </c>
       <c r="M2" t="n">
         <v>1376025.705889676</v>
@@ -26361,7 +26361,7 @@
         <v>1315578.108505743</v>
       </c>
       <c r="P2" t="n">
-        <v>1217914.156724762</v>
+        <v>1217914.156724763</v>
       </c>
     </row>
     <row r="3">
@@ -26392,10 +26392,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211200</v>
+        <v>212000</v>
       </c>
       <c r="K3" t="n">
         <v>82400</v>
@@ -26407,10 +26407,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>116800</v>
+        <v>117600</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26444,7 +26444,7 @@
         <v>630217.3678024551</v>
       </c>
       <c r="I4" t="n">
-        <v>628040.6128611226</v>
+        <v>627809.8827757183</v>
       </c>
       <c r="J4" t="n">
         <v>603138.8591598269</v>
@@ -26496,7 +26496,7 @@
         <v>49348.503</v>
       </c>
       <c r="I5" t="n">
-        <v>49432.572</v>
+        <v>49348.503</v>
       </c>
       <c r="J5" t="n">
         <v>43043.328</v>
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525568.175387799</v>
+        <v>525568.1753877993</v>
       </c>
       <c r="C6" t="n">
-        <v>665538.9099317295</v>
+        <v>665538.9099317302</v>
       </c>
       <c r="D6" t="n">
-        <v>667912.8605250396</v>
+        <v>667912.8605250403</v>
       </c>
       <c r="E6" t="n">
-        <v>385839.5970191864</v>
+        <v>385839.5970191875</v>
       </c>
       <c r="F6" t="n">
-        <v>639231.6382554688</v>
+        <v>639231.638255469</v>
       </c>
       <c r="G6" t="n">
-        <v>508970.2332494798</v>
+        <v>508970.2332494805</v>
       </c>
       <c r="H6" t="n">
-        <v>680174.362073357</v>
+        <v>680174.3620733574</v>
       </c>
       <c r="I6" t="n">
-        <v>681922.8880146898</v>
+        <v>682581.8471000944</v>
       </c>
       <c r="J6" t="n">
-        <v>458195.9213459158</v>
+        <v>457395.921345916</v>
       </c>
       <c r="K6" t="n">
-        <v>603528.5308990345</v>
+        <v>603528.5308990349</v>
       </c>
       <c r="L6" t="n">
-        <v>484755.2546006143</v>
+        <v>484755.254600615</v>
       </c>
       <c r="M6" t="n">
         <v>696810.9073343219</v>
       </c>
       <c r="N6" t="n">
-        <v>698470.0908883211</v>
+        <v>699270.0908883215</v>
       </c>
       <c r="O6" t="n">
-        <v>564234.1028093563</v>
+        <v>563434.1028093565</v>
       </c>
       <c r="P6" t="n">
-        <v>642352.8785594954</v>
+        <v>642352.8785594957</v>
       </c>
     </row>
   </sheetData>
@@ -26836,7 +26836,7 @@
         <v>587</v>
       </c>
       <c r="I2" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J2" t="n">
         <v>512</v>
@@ -27058,10 +27058,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K2" t="n">
         <v>103</v>
@@ -27073,10 +27073,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27295,10 +27295,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P2" t="n">
         <v>103</v>
@@ -29224,16 +29224,16 @@
         <v>586.6755817285639</v>
       </c>
       <c r="U23" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V23" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W23" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="X23" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y23" t="n">
         <v>511.3174326828064</v>
@@ -29364,16 +29364,16 @@
         <v>571.1850752716849</v>
       </c>
       <c r="O25" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P25" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q25" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R25" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S25" t="n">
         <v>362.3734797028554</v>
